--- a/municipal/ENG/Demography/Number of population by urban-rural settlements as of 1 January/Kobuleti.xlsx
+++ b/municipal/ENG/Demography/Number of population by urban-rural settlements as of 1 January/Kobuleti.xlsx
@@ -1,32 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\inglisuri\cx 3 - eng\cx 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\ქორ.დაბ.სიკვ\1) დაბადება 2023\4 ცოცხლად დაბადება საქალაქო სასოფლო\Number of live births by urban-rural settlements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF37EE1-3AF9-4677-8630-00A70F38BE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF13C4-299B-46E4-A993-406B963C7F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="435" windowWidth="11265" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="27540" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr autoRecover="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Number of live births by urban-rural settlements, in the municipality of Kobuleti</t>
+  </si>
   <si>
     <t>(persons)</t>
   </si>
@@ -39,59 +36,68 @@
   <si>
     <t>Rural</t>
   </si>
-  <si>
-    <t>Number of live births by urban-rural settlements, in the municipality of Kobuleti</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="###0"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -118,83 +124,88 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -202,74 +213,34 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -278,76 +249,131 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -440,7 +466,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -615,210 +641,231 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="22" customWidth="1"/>
-    <col min="2" max="13" width="9.42578125" style="22" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8">
+        <v>2010</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2011</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2012</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2013</v>
+      </c>
+      <c r="F5" s="9">
+        <v>2014</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2015</v>
+      </c>
+      <c r="H5" s="9">
+        <v>2016</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2017</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2018</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2019</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2020</v>
+      </c>
+      <c r="M5" s="13">
+        <v>2021</v>
+      </c>
+      <c r="N5" s="9">
+        <v>2022</v>
+      </c>
+      <c r="O5" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1243</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1073</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1097</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1109</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1371</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1287</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1216</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1290</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1142</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1019</v>
+      </c>
+      <c r="L6" s="16">
+        <v>1031</v>
+      </c>
+      <c r="M6" s="16">
+        <v>998</v>
+      </c>
+      <c r="N6" s="17">
+        <v>927</v>
+      </c>
+      <c r="O6" s="18">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="19">
+        <v>390</v>
+      </c>
+      <c r="C7" s="20">
+        <v>478</v>
+      </c>
+      <c r="D7" s="20">
+        <v>408</v>
+      </c>
+      <c r="E7" s="20">
+        <v>421</v>
+      </c>
+      <c r="F7" s="20">
+        <v>504</v>
+      </c>
+      <c r="G7" s="20">
+        <v>464</v>
+      </c>
+      <c r="H7" s="20">
+        <v>425</v>
+      </c>
+      <c r="I7" s="20">
+        <v>475</v>
+      </c>
+      <c r="J7" s="20">
+        <v>391</v>
+      </c>
+      <c r="K7" s="20">
+        <v>382</v>
+      </c>
+      <c r="L7" s="20">
+        <v>367</v>
+      </c>
+      <c r="M7" s="20">
+        <v>404</v>
+      </c>
+      <c r="N7" s="21">
+        <v>340</v>
+      </c>
+      <c r="O7" s="22">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="1">
-        <v>2010</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2011</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2012</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2013</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2014</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2015</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2016</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2017</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2018</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2019</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2020</v>
-      </c>
-      <c r="M5" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1243</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1073</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1097</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1109</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1371</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1287</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1216</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1290</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1142</v>
-      </c>
-      <c r="K6" s="11">
-        <v>1019</v>
-      </c>
-      <c r="L6" s="11">
-        <v>1031</v>
-      </c>
-      <c r="M6" s="12">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>390</v>
-      </c>
-      <c r="C7" s="5">
-        <v>478</v>
-      </c>
-      <c r="D7" s="5">
-        <v>408</v>
-      </c>
-      <c r="E7" s="5">
-        <v>421</v>
-      </c>
-      <c r="F7" s="5">
-        <v>504</v>
-      </c>
-      <c r="G7" s="5">
-        <v>464</v>
-      </c>
-      <c r="H7" s="5">
-        <v>425</v>
-      </c>
-      <c r="I7" s="5">
-        <v>475</v>
-      </c>
-      <c r="J7" s="5">
-        <v>391</v>
-      </c>
-      <c r="K7" s="5">
-        <v>382</v>
-      </c>
-      <c r="L7" s="5">
-        <v>367</v>
-      </c>
-      <c r="M7" s="6">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="B8" s="23">
         <v>853</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="24">
         <v>595</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="24">
         <v>689</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="24">
         <v>688</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="24">
         <v>867</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="24">
         <v>823</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="24">
         <v>791</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="24">
         <v>815</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="24">
         <v>751</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="24">
         <v>637</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="24">
         <v>664</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="24">
         <v>594</v>
+      </c>
+      <c r="N8" s="25">
+        <v>587</v>
+      </c>
+      <c r="O8" s="26">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>